--- a/medicine/Psychotrope/Marquisette/Marquisette.xlsx
+++ b/medicine/Psychotrope/Marquisette/Marquisette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La marquisette est une boisson alcoolisée notamment présente dans le sud-est de la France, dans les départements de l'Ardèche, du Gard, de la Haute-Loire, des Hautes-Alpes, de la Drôme, de la Lozère, de l'Isère et dans le Pilat rhodanien. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La recette peut être variable selon les localités. Dans certaines, cette boisson mélange limonade, mousseux ou champagne, vin blanc, sucre, liqueur de mandarine impériale, rhum blanc, sirop d’orange, morceaux d’oranges et de citrons jaunes.
 </t>
